--- a/Code/Results/Cases/Case_0_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_195/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2713714909335749</v>
+        <v>0.4008259790170001</v>
       </c>
       <c r="D2">
-        <v>0.02887718125402472</v>
+        <v>0.08476179735218814</v>
       </c>
       <c r="E2">
-        <v>0.08184886776127698</v>
+        <v>0.1646544839845845</v>
       </c>
       <c r="F2">
-        <v>2.814467487884372</v>
+        <v>3.188501816221418</v>
       </c>
       <c r="G2">
-        <v>0.0007727669962640124</v>
+        <v>0.002534671248454599</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1738662185316784</v>
+        <v>0.2847810779152766</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05296505452479749</v>
+        <v>0.1424449109323263</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.608499243524307</v>
+        <v>9.126135068038934</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2471718398669651</v>
+        <v>0.397770269521331</v>
       </c>
       <c r="D3">
-        <v>0.02855929509577848</v>
+        <v>0.08500181780032356</v>
       </c>
       <c r="E3">
-        <v>0.07671166245599892</v>
+        <v>0.1644652704300178</v>
       </c>
       <c r="F3">
-        <v>2.516196928765538</v>
+        <v>3.139123629587729</v>
       </c>
       <c r="G3">
-        <v>0.0007818349074546814</v>
+        <v>0.002540606040274325</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1596117921651086</v>
+        <v>0.2833444913861243</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.05149359042130897</v>
+        <v>0.1428503099764136</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.665977775295573</v>
+        <v>8.963443070047902</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.232811763978674</v>
+        <v>0.3960940797312844</v>
       </c>
       <c r="D4">
-        <v>0.02838885206003638</v>
+        <v>0.08516658884873252</v>
       </c>
       <c r="E4">
-        <v>0.07369528988435903</v>
+        <v>0.1644172740985432</v>
       </c>
       <c r="F4">
-        <v>2.338515573613947</v>
+        <v>3.110605269914132</v>
       </c>
       <c r="G4">
-        <v>0.0007875516628284383</v>
+        <v>0.002544444145919403</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.151189508237195</v>
+        <v>0.2825991955898743</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05066159155429872</v>
+        <v>0.1431443732272442</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.104134221228321</v>
+        <v>8.86884380537532</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2270733996810179</v>
+        <v>0.3954612393415573</v>
       </c>
       <c r="D5">
-        <v>0.02832532184891789</v>
+        <v>0.08523811795603287</v>
       </c>
       <c r="E5">
-        <v>0.07249800976446608</v>
+        <v>0.164414856852634</v>
       </c>
       <c r="F5">
-        <v>2.267334744229288</v>
+        <v>3.099435058787407</v>
       </c>
       <c r="G5">
-        <v>0.0007899207336570309</v>
+        <v>0.002546057191693981</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1478326335933531</v>
+        <v>0.2823298260257445</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05033949573990526</v>
+        <v>0.1432755714425902</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.878955430401277</v>
+        <v>8.831620452771404</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2261270749450546</v>
+        <v>0.3953591876496176</v>
       </c>
       <c r="D6">
-        <v>0.0283151226162861</v>
+        <v>0.08525026032848437</v>
       </c>
       <c r="E6">
-        <v>0.07230105397472286</v>
+        <v>0.1644154907084037</v>
       </c>
       <c r="F6">
-        <v>2.255585217367639</v>
+        <v>3.097607468376481</v>
       </c>
       <c r="G6">
-        <v>0.0007903165533366119</v>
+        <v>0.002546328000360748</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1472795615063518</v>
+        <v>0.2822871703623875</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05028700750062143</v>
+        <v>0.1432980436042186</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.841779998835193</v>
+        <v>8.825519532964677</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2327339298555984</v>
+        <v>0.3960853417833761</v>
       </c>
       <c r="D7">
-        <v>0.02838797163988005</v>
+        <v>0.08516753575446323</v>
       </c>
       <c r="E7">
-        <v>0.07367901718504299</v>
+        <v>0.1644171720962255</v>
       </c>
       <c r="F7">
-        <v>2.337550825193986</v>
+        <v>3.110452799290954</v>
       </c>
       <c r="G7">
-        <v>0.0007875834507278975</v>
+        <v>0.002544465701410878</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1511439411411146</v>
+        <v>0.2825954237805703</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05065718031369926</v>
+        <v>0.1431460965786293</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.101082671759627</v>
+        <v>8.86833643305448</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2629164554809904</v>
+        <v>0.399730804837418</v>
       </c>
       <c r="D8">
-        <v>0.02876225218559014</v>
+        <v>0.08484095077689169</v>
       </c>
       <c r="E8">
-        <v>0.08004719871000177</v>
+        <v>0.1645750895358091</v>
       </c>
       <c r="F8">
-        <v>2.710398308759352</v>
+        <v>3.171101753324621</v>
       </c>
       <c r="G8">
-        <v>0.0007758639257142047</v>
+        <v>0.002536677379832345</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1688779331487993</v>
+        <v>0.2842573246246474</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.05244220937067468</v>
+        <v>0.142575329664119</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.279723117897618</v>
+        <v>9.068937128403149</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3266617769698996</v>
+        <v>0.4084711701628123</v>
       </c>
       <c r="D9">
-        <v>0.02970763902062146</v>
+        <v>0.08433819011508703</v>
       </c>
       <c r="E9">
-        <v>0.09376869744532002</v>
+        <v>0.1654261277584936</v>
       </c>
       <c r="F9">
-        <v>3.492288507305602</v>
+        <v>3.30439041496254</v>
       </c>
       <c r="G9">
-        <v>0.0007539652041369246</v>
+        <v>0.002522936840166208</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2066630553508446</v>
+        <v>0.2886043149128952</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0565617011004349</v>
+        <v>0.1418137995033319</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.74842760769241</v>
+        <v>9.50456811972532</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3772266789401897</v>
+        <v>0.4158706283182028</v>
       </c>
       <c r="D10">
-        <v>0.03055551130683298</v>
+        <v>0.08405226851534309</v>
       </c>
       <c r="E10">
-        <v>0.104822771957398</v>
+        <v>0.1663822655070923</v>
       </c>
       <c r="F10">
-        <v>4.10948458456491</v>
+        <v>3.411187870280571</v>
       </c>
       <c r="G10">
-        <v>0.000738380255892588</v>
+        <v>0.002513764743439303</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2368790234631462</v>
+        <v>0.2924660023284673</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.060047865602602</v>
+        <v>0.141471866956131</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.69558928031023</v>
+        <v>9.850776479271531</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4012907389078748</v>
+        <v>0.4194509569321383</v>
       </c>
       <c r="D11">
-        <v>0.03098109648078307</v>
+        <v>0.08394022163348325</v>
       </c>
       <c r="E11">
-        <v>0.1101208936392339</v>
+        <v>0.1668893041854673</v>
       </c>
       <c r="F11">
-        <v>4.402663295813596</v>
+        <v>3.461725954367154</v>
       </c>
       <c r="G11">
-        <v>0.0007313588547274888</v>
+        <v>0.002509790191112729</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2513223433822844</v>
+        <v>0.2943689193267147</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06175521625013403</v>
+        <v>0.1413634587050794</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.62027167823499</v>
+        <v>10.01404308703729</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4105804453259907</v>
+        <v>0.420837671952313</v>
       </c>
       <c r="D12">
-        <v>0.03114864935289319</v>
+        <v>0.0839003758941459</v>
       </c>
       <c r="E12">
-        <v>0.1121716150852983</v>
+        <v>0.167091686474599</v>
       </c>
       <c r="F12">
-        <v>4.51577470722907</v>
+        <v>3.481146546516129</v>
       </c>
       <c r="G12">
-        <v>0.0007287058619055229</v>
+        <v>0.002508313404818694</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2569081989430515</v>
+        <v>0.2951106083341699</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06242133375434378</v>
+        <v>0.1413291771737413</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.97699594115136</v>
+        <v>10.07670476525414</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4085714315447149</v>
+        <v>0.4205376410056942</v>
       </c>
       <c r="D13">
-        <v>0.03111226784198706</v>
+        <v>0.08390884257811848</v>
       </c>
       <c r="E13">
-        <v>0.1117278795802115</v>
+        <v>0.1670476380776584</v>
       </c>
       <c r="F13">
-        <v>4.4913157612703</v>
+        <v>3.476951363661442</v>
       </c>
       <c r="G13">
-        <v>0.0007292770402098575</v>
+        <v>0.002508630201756692</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2556997206971658</v>
+        <v>0.2949499329623819</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.06227696550596207</v>
+        <v>0.1413362593279004</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.89985981057555</v>
+        <v>10.06317217017795</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4020513045095129</v>
+        <v>0.4195644224445516</v>
       </c>
       <c r="D14">
-        <v>0.03099474886772313</v>
+        <v>0.08393689175511554</v>
       </c>
       <c r="E14">
-        <v>0.1102886815769715</v>
+        <v>0.1669057462420547</v>
       </c>
       <c r="F14">
-        <v>4.411925211696371</v>
+        <v>3.463318018023926</v>
       </c>
       <c r="G14">
-        <v>0.0007311404985790482</v>
+        <v>0.002509668129024201</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2517794593120186</v>
+        <v>0.2944295153304495</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.06180961247545724</v>
+        <v>0.1413605027006604</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.64948187768732</v>
+        <v>10.01918150971187</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3980814002959505</v>
+        <v>0.4189723282730995</v>
       </c>
       <c r="D15">
-        <v>0.0309236190629214</v>
+        <v>0.0839544089825246</v>
       </c>
       <c r="E15">
-        <v>0.1094131012536366</v>
+        <v>0.16682018524914</v>
       </c>
       <c r="F15">
-        <v>4.363578400245018</v>
+        <v>3.455004096420197</v>
       </c>
       <c r="G15">
-        <v>0.000732282556389939</v>
+        <v>0.00251030756879072</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2493938765039587</v>
+        <v>0.2941134938964751</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.06152596333964411</v>
+        <v>0.141376233927609</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.4970048016562</v>
+        <v>9.992345025575219</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3756774139190213</v>
+        <v>0.415640966511944</v>
       </c>
       <c r="D16">
-        <v>0.03052855466863491</v>
+        <v>0.08405995302907598</v>
       </c>
       <c r="E16">
-        <v>0.1044824178573869</v>
+        <v>0.1663505808915531</v>
       </c>
       <c r="F16">
-        <v>4.090599568096565</v>
+        <v>3.407924582323432</v>
       </c>
       <c r="G16">
-        <v>0.0007388401694945097</v>
+        <v>0.00251402845745733</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2359504858415846</v>
+        <v>0.2923445903930144</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.05993890425062531</v>
+        <v>0.1414798995321433</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.63602183259411</v>
+        <v>9.840223313779688</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3622215678352063</v>
+        <v>0.413652242413491</v>
       </c>
       <c r="D17">
-        <v>0.03029684566371671</v>
+        <v>0.08412931105618426</v>
       </c>
       <c r="E17">
-        <v>0.1015304280305358</v>
+        <v>0.1660809650593471</v>
       </c>
       <c r="F17">
-        <v>3.926518824306811</v>
+        <v>3.379544867720597</v>
       </c>
       <c r="G17">
-        <v>0.0007428778994070633</v>
+        <v>0.002516361666917743</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2278928830708793</v>
+        <v>0.2912969238348495</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.05899781640425772</v>
+        <v>0.1415555624035036</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.11844881634869</v>
+        <v>9.748384667770551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3545804050946515</v>
+        <v>0.4125285430204144</v>
       </c>
       <c r="D18">
-        <v>0.03016728165431815</v>
+        <v>0.08417090053958987</v>
       </c>
       <c r="E18">
-        <v>0.09985750969421403</v>
+        <v>0.1659326735588031</v>
       </c>
       <c r="F18">
-        <v>3.833291493822571</v>
+        <v>3.36340555053269</v>
       </c>
       <c r="G18">
-        <v>0.0007452069889453128</v>
+        <v>0.00251772230234405</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2233229582699821</v>
+        <v>0.2907080919582867</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.05846781829104231</v>
+        <v>0.1416035190523068</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.82435065507082</v>
+        <v>9.696104696330508</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3520094306055626</v>
+        <v>0.4121515372986835</v>
       </c>
       <c r="D19">
-        <v>0.03012403218593818</v>
+        <v>0.08418527364018402</v>
       </c>
       <c r="E19">
-        <v>0.0992952204119355</v>
+        <v>0.1658836294877126</v>
       </c>
       <c r="F19">
-        <v>3.801914827803273</v>
+        <v>3.357972595402231</v>
       </c>
       <c r="G19">
-        <v>0.0007459968396305084</v>
+        <v>0.002518186195865904</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2217863020246327</v>
+        <v>0.2905110844965222</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.05829024978887176</v>
+        <v>0.1416205187271835</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.72536443321331</v>
+        <v>9.678496715856681</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3636436276779023</v>
+        <v>0.4138618580061291</v>
       </c>
       <c r="D20">
-        <v>0.03032112320438074</v>
+        <v>0.08412175223929452</v>
       </c>
       <c r="E20">
-        <v>0.1018420477435917</v>
+        <v>0.1661089638839677</v>
       </c>
       <c r="F20">
-        <v>3.943864659075956</v>
+        <v>3.382546886850747</v>
       </c>
       <c r="G20">
-        <v>0.00074244741018965</v>
+        <v>0.00251611136531281</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2287438341880517</v>
+        <v>0.2914070253063841</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.05909681394049926</v>
+        <v>0.1415470487715105</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.17316658289383</v>
+        <v>9.758104789121376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4039614020722411</v>
+        <v>0.419849440216268</v>
       </c>
       <c r="D21">
-        <v>0.03102908774077662</v>
+        <v>0.08392858296105032</v>
       </c>
       <c r="E21">
-        <v>0.1107101534156634</v>
+        <v>0.1669471415663288</v>
       </c>
       <c r="F21">
-        <v>4.435184717743851</v>
+        <v>3.467314769812646</v>
       </c>
       <c r="G21">
-        <v>0.000730593031252251</v>
+        <v>0.002509362498145959</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2529276328564691</v>
+        <v>0.2945818015051742</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.06194633555453422</v>
+        <v>0.141353198152764</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.72283721948941</v>
+        <v>10.03207989338955</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4313582429325322</v>
+        <v>0.4239429633025793</v>
       </c>
       <c r="D22">
-        <v>0.03152943674392716</v>
+        <v>0.08381739382268449</v>
       </c>
       <c r="E22">
-        <v>0.1167682725366248</v>
+        <v>0.1675554347012351</v>
       </c>
       <c r="F22">
-        <v>4.76865662683349</v>
+        <v>3.524365370009235</v>
       </c>
       <c r="G22">
-        <v>0.0007228773757204099</v>
+        <v>0.002505116546075089</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.269421480296046</v>
+        <v>0.2967796970004173</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.06392401616383125</v>
+        <v>0.1412659647149219</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.7744804081143</v>
+        <v>10.21601499353631</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4166311571964343</v>
+        <v>0.4217416392033044</v>
       </c>
       <c r="D23">
-        <v>0.03125869828600614</v>
+        <v>0.08387536211031232</v>
       </c>
       <c r="E23">
-        <v>0.1135088335131442</v>
+        <v>0.1672252377328824</v>
       </c>
       <c r="F23">
-        <v>4.589430998683014</v>
+        <v>3.493764842240381</v>
       </c>
       <c r="G23">
-        <v>0.0007269939190513434</v>
+        <v>0.002507367663496564</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2605494162736051</v>
+        <v>0.2955953609485107</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.06285715196129971</v>
+        <v>0.1413089149029858</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.20928236945633</v>
+        <v>10.11739722765606</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3630004209963715</v>
+        <v>0.4137670296160252</v>
       </c>
       <c r="D24">
-        <v>0.03031013601142973</v>
+        <v>0.08412516423920025</v>
       </c>
       <c r="E24">
-        <v>0.1017010894487953</v>
+        <v>0.1660962847029985</v>
       </c>
       <c r="F24">
-        <v>3.936019188240806</v>
+        <v>3.381189124191167</v>
       </c>
       <c r="G24">
-        <v>0.0007426420099678223</v>
+        <v>0.002516224466666168</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.228358925704029</v>
+        <v>0.2913572064316128</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.05905202290451683</v>
+        <v>0.1415508839013313</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.14841797043448</v>
+        <v>9.753708705221186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3088379029640009</v>
+        <v>0.4059355002486029</v>
       </c>
       <c r="D25">
-        <v>0.02942694051099082</v>
+        <v>0.08445951084074288</v>
       </c>
       <c r="E25">
-        <v>0.08990347583529967</v>
+        <v>0.1651378580110006</v>
       </c>
       <c r="F25">
-        <v>3.27420665316501</v>
+        <v>3.266783272650969</v>
       </c>
       <c r="G25">
-        <v>0.0007597884216991539</v>
+        <v>0.002526491120654018</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1960597757006752</v>
+        <v>0.2873113850368156</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.05537313328538573</v>
+        <v>0.1419815707233525</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.06015153741896</v>
+        <v>9.382154833515415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_195/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4008259790170001</v>
+        <v>0.2713714909333333</v>
       </c>
       <c r="D2">
-        <v>0.08476179735218814</v>
+        <v>0.02887718125401939</v>
       </c>
       <c r="E2">
-        <v>0.1646544839845845</v>
+        <v>0.081848867761245</v>
       </c>
       <c r="F2">
-        <v>3.188501816221418</v>
+        <v>2.814467487884343</v>
       </c>
       <c r="G2">
-        <v>0.002534671248454599</v>
+        <v>0.0007727669962638323</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2847810779152766</v>
+        <v>0.1738662185316002</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1424449109323263</v>
+        <v>0.05296505452484723</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.126135068038934</v>
+        <v>8.60849924352425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.397770269521331</v>
+        <v>0.2471718398669367</v>
       </c>
       <c r="D3">
-        <v>0.08500181780032356</v>
+        <v>0.02855929509589394</v>
       </c>
       <c r="E3">
-        <v>0.1644652704300178</v>
+        <v>0.07671166245599892</v>
       </c>
       <c r="F3">
-        <v>3.139123629587729</v>
+        <v>2.516196928765538</v>
       </c>
       <c r="G3">
-        <v>0.002540606040274325</v>
+        <v>0.000781834907509447</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2833444913861243</v>
+        <v>0.1596117921649309</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1428503099764136</v>
+        <v>0.05149359042131607</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.963443070047902</v>
+        <v>7.665977775295573</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3960940797312844</v>
+        <v>0.2328117639786882</v>
       </c>
       <c r="D4">
-        <v>0.08516658884873252</v>
+        <v>0.02838885205993691</v>
       </c>
       <c r="E4">
-        <v>0.1644172740985432</v>
+        <v>0.07369528988435903</v>
       </c>
       <c r="F4">
-        <v>3.110605269914132</v>
+        <v>2.338515573613961</v>
       </c>
       <c r="G4">
-        <v>0.002544444145919403</v>
+        <v>0.0007875516628286971</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2825991955898743</v>
+        <v>0.1511895082371879</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1431443732272442</v>
+        <v>0.05066159155418504</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.86884380537532</v>
+        <v>7.104134221228321</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3954612393415573</v>
+        <v>0.2270733996807763</v>
       </c>
       <c r="D5">
-        <v>0.08523811795603287</v>
+        <v>0.02832532184891434</v>
       </c>
       <c r="E5">
-        <v>0.164414856852634</v>
+        <v>0.07249800976452292</v>
       </c>
       <c r="F5">
-        <v>3.099435058787407</v>
+        <v>2.267334744229288</v>
       </c>
       <c r="G5">
-        <v>0.002546057191693981</v>
+        <v>0.0007899207337655525</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2823298260257445</v>
+        <v>0.1478326335932891</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1432755714425902</v>
+        <v>0.05033949573984486</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.831620452771404</v>
+        <v>6.878955430401277</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3953591876496176</v>
+        <v>0.226127074944813</v>
       </c>
       <c r="D6">
-        <v>0.08525026032848437</v>
+        <v>0.02831512261629676</v>
       </c>
       <c r="E6">
-        <v>0.1644154907084037</v>
+        <v>0.07230105397468378</v>
       </c>
       <c r="F6">
-        <v>3.097607468376481</v>
+        <v>2.255585217367639</v>
       </c>
       <c r="G6">
-        <v>0.002546328000360748</v>
+        <v>0.000790316553235354</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2822871703623875</v>
+        <v>0.1472795615063873</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1432980436042186</v>
+        <v>0.05028700750064274</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.825519532964677</v>
+        <v>6.841779998835193</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3960853417833761</v>
+        <v>0.2327339298553568</v>
       </c>
       <c r="D7">
-        <v>0.08516753575446323</v>
+        <v>0.02838797163988538</v>
       </c>
       <c r="E7">
-        <v>0.1644171720962255</v>
+        <v>0.07367901718504299</v>
       </c>
       <c r="F7">
-        <v>3.110452799290954</v>
+        <v>2.337550825194043</v>
       </c>
       <c r="G7">
-        <v>0.002544465701410878</v>
+        <v>0.000787583450780078</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2825954237805703</v>
+        <v>0.1511439411411146</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1431460965786293</v>
+        <v>0.050657180313749</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.86833643305448</v>
+        <v>7.101082671759571</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.399730804837418</v>
+        <v>0.262916455481232</v>
       </c>
       <c r="D8">
-        <v>0.08484095077689169</v>
+        <v>0.02876225218570383</v>
       </c>
       <c r="E8">
-        <v>0.1645750895358091</v>
+        <v>0.08004719870996979</v>
       </c>
       <c r="F8">
-        <v>3.171101753324621</v>
+        <v>2.710398308759352</v>
       </c>
       <c r="G8">
-        <v>0.002536677379832345</v>
+        <v>0.0007758639257140037</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2842573246246474</v>
+        <v>0.1688779331487993</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.142575329664119</v>
+        <v>0.05244220937047928</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.068937128403149</v>
+        <v>8.279723117897618</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4084711701628123</v>
+        <v>0.3266617769696438</v>
       </c>
       <c r="D9">
-        <v>0.08433819011508703</v>
+        <v>0.0297076390204829</v>
       </c>
       <c r="E9">
-        <v>0.1654261277584936</v>
+        <v>0.09376869744531646</v>
       </c>
       <c r="F9">
-        <v>3.30439041496254</v>
+        <v>3.492288507305631</v>
       </c>
       <c r="G9">
-        <v>0.002522936840166208</v>
+        <v>0.0007539652041361755</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2886043149128952</v>
+        <v>0.2066630553508446</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1418137995033319</v>
+        <v>0.05656170110031056</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.50456811972532</v>
+        <v>10.74842760769235</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4158706283182028</v>
+        <v>0.3772266789398202</v>
       </c>
       <c r="D10">
-        <v>0.08405226851534309</v>
+        <v>0.0305555113071847</v>
       </c>
       <c r="E10">
-        <v>0.1663822655070923</v>
+        <v>0.104822771957398</v>
       </c>
       <c r="F10">
-        <v>3.411187870280571</v>
+        <v>4.10948458456491</v>
       </c>
       <c r="G10">
-        <v>0.002513764743439303</v>
+        <v>0.0007383802558915631</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2924660023284673</v>
+        <v>0.2368790234633025</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.141471866956131</v>
+        <v>0.06004786560269437</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.850776479271531</v>
+        <v>12.69558928031029</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4194509569321383</v>
+        <v>0.4012907389077043</v>
       </c>
       <c r="D11">
-        <v>0.08394022163348325</v>
+        <v>0.03098109648099978</v>
       </c>
       <c r="E11">
-        <v>0.1668893041854673</v>
+        <v>0.1101208936392304</v>
       </c>
       <c r="F11">
-        <v>3.461725954367154</v>
+        <v>4.402663295813596</v>
       </c>
       <c r="G11">
-        <v>0.002509790191112729</v>
+        <v>0.0007313588545292879</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2943689193267147</v>
+        <v>0.2513223433822134</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1413634587050794</v>
+        <v>0.06175521625034719</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.01404308703729</v>
+        <v>13.62027167823499</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.420837671952313</v>
+        <v>0.4105804453257065</v>
       </c>
       <c r="D12">
-        <v>0.0839003758941459</v>
+        <v>0.03114864935276529</v>
       </c>
       <c r="E12">
-        <v>0.167091686474599</v>
+        <v>0.1121716150852023</v>
       </c>
       <c r="F12">
-        <v>3.481146546516129</v>
+        <v>4.515774707229042</v>
       </c>
       <c r="G12">
-        <v>0.002508313404818694</v>
+        <v>0.0007287058619088536</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2951106083341699</v>
+        <v>0.2569081989430515</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1413291771737413</v>
+        <v>0.06242133375438996</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.07670476525414</v>
+        <v>13.97699594115124</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4205376410056942</v>
+        <v>0.4085714315444591</v>
       </c>
       <c r="D13">
-        <v>0.08390884257811848</v>
+        <v>0.03111226784198706</v>
       </c>
       <c r="E13">
-        <v>0.1670476380776584</v>
+        <v>0.1117278795802044</v>
       </c>
       <c r="F13">
-        <v>3.476951363661442</v>
+        <v>4.491315761270357</v>
       </c>
       <c r="G13">
-        <v>0.002508630201756692</v>
+        <v>0.0007292770402807099</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2949499329623819</v>
+        <v>0.2556997206972227</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1413362593279004</v>
+        <v>0.06227696550602602</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.06317217017795</v>
+        <v>13.89985981057544</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4195644224445516</v>
+        <v>0.4020513045097687</v>
       </c>
       <c r="D14">
-        <v>0.08393689175511554</v>
+        <v>0.03099474886786169</v>
       </c>
       <c r="E14">
-        <v>0.1669057462420547</v>
+        <v>0.1102886815769608</v>
       </c>
       <c r="F14">
-        <v>3.463318018023926</v>
+        <v>4.411925211696342</v>
       </c>
       <c r="G14">
-        <v>0.002509668129024201</v>
+        <v>0.0007311404986501385</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2944295153304495</v>
+        <v>0.251779459312317</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1413605027006604</v>
+        <v>0.06180961247534356</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.01918150971187</v>
+        <v>13.64948187768744</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4189723282730995</v>
+        <v>0.3980814002959789</v>
       </c>
       <c r="D15">
-        <v>0.0839544089825246</v>
+        <v>0.03092361906276864</v>
       </c>
       <c r="E15">
-        <v>0.16682018524914</v>
+        <v>0.1094131012536614</v>
       </c>
       <c r="F15">
-        <v>3.455004096420197</v>
+        <v>4.363578400245018</v>
       </c>
       <c r="G15">
-        <v>0.00251030756879072</v>
+        <v>0.0007322825563730582</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2941134938964751</v>
+        <v>0.2493938765038592</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.141376233927609</v>
+        <v>0.06152596333978977</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.992345025575219</v>
+        <v>13.4970048016562</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.415640966511944</v>
+        <v>0.3756774139189645</v>
       </c>
       <c r="D16">
-        <v>0.08405995302907598</v>
+        <v>0.03052855466899373</v>
       </c>
       <c r="E16">
-        <v>0.1663505808915531</v>
+        <v>0.1044824178573691</v>
       </c>
       <c r="F16">
-        <v>3.407924582323432</v>
+        <v>4.090599568096565</v>
       </c>
       <c r="G16">
-        <v>0.00251402845745733</v>
+        <v>0.0007388401694944098</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2923445903930144</v>
+        <v>0.2359504858415846</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1414798995321433</v>
+        <v>0.05993890425080295</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.840223313779688</v>
+        <v>12.63602183259405</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.413652242413491</v>
+        <v>0.3622215678352632</v>
       </c>
       <c r="D17">
-        <v>0.08412931105618426</v>
+        <v>0.03029684566358526</v>
       </c>
       <c r="E17">
-        <v>0.1660809650593471</v>
+        <v>0.1015304280305465</v>
       </c>
       <c r="F17">
-        <v>3.379544867720597</v>
+        <v>3.926518824306811</v>
       </c>
       <c r="G17">
-        <v>0.002516361666917743</v>
+        <v>0.0007428778994632887</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2912969238348495</v>
+        <v>0.2278928830708651</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1415555624035036</v>
+        <v>0.0589978164042364</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.748384667770551</v>
+        <v>12.11844881634858</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4125285430204144</v>
+        <v>0.3545804050943673</v>
       </c>
       <c r="D18">
-        <v>0.08417090053958987</v>
+        <v>0.03016728165431459</v>
       </c>
       <c r="E18">
-        <v>0.1659326735588031</v>
+        <v>0.09985750969421403</v>
       </c>
       <c r="F18">
-        <v>3.36340555053269</v>
+        <v>3.833291493822543</v>
       </c>
       <c r="G18">
-        <v>0.00251772230234405</v>
+        <v>0.0007452069889444246</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2907080919582867</v>
+        <v>0.2233229582697192</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1416035190523068</v>
+        <v>0.05846781829103165</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.696104696330508</v>
+        <v>11.82435065507087</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4121515372986835</v>
+        <v>0.3520094306053352</v>
       </c>
       <c r="D19">
-        <v>0.08418527364018402</v>
+        <v>0.03012403218568238</v>
       </c>
       <c r="E19">
-        <v>0.1658836294877126</v>
+        <v>0.09929522041193195</v>
       </c>
       <c r="F19">
-        <v>3.357972595402231</v>
+        <v>3.801914827803273</v>
       </c>
       <c r="G19">
-        <v>0.002518186195865904</v>
+        <v>0.0007459968396846824</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2905110844965222</v>
+        <v>0.2217863020246682</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1416205187271835</v>
+        <v>0.05829024978895347</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.678496715856681</v>
+        <v>11.72536443321326</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4138618580061291</v>
+        <v>0.3636436276774191</v>
       </c>
       <c r="D20">
-        <v>0.08412175223929452</v>
+        <v>0.03032112320448022</v>
       </c>
       <c r="E20">
-        <v>0.1661089638839677</v>
+        <v>0.1018420477435562</v>
       </c>
       <c r="F20">
-        <v>3.382546886850747</v>
+        <v>3.943864659076013</v>
       </c>
       <c r="G20">
-        <v>0.00251611136531281</v>
+        <v>0.0007424474101922485</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2914070253063841</v>
+        <v>0.2287438341881511</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1415470487715105</v>
+        <v>0.05909681394065558</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.758104789121376</v>
+        <v>12.17316658289377</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.419849440216268</v>
+        <v>0.4039614020722411</v>
       </c>
       <c r="D21">
-        <v>0.08392858296105032</v>
+        <v>0.03102908774047464</v>
       </c>
       <c r="E21">
-        <v>0.1669471415663288</v>
+        <v>0.1107101534156563</v>
       </c>
       <c r="F21">
-        <v>3.467314769812646</v>
+        <v>4.435184717743851</v>
       </c>
       <c r="G21">
-        <v>0.002509362498145959</v>
+        <v>0.0007305930312346699</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2945818015051742</v>
+        <v>0.2529276328566539</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.141353198152764</v>
+        <v>0.06194633555459461</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.03207989338955</v>
+        <v>13.72283721948941</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4239429633025793</v>
+        <v>0.4313582429323617</v>
       </c>
       <c r="D22">
-        <v>0.08381739382268449</v>
+        <v>0.03152943674407638</v>
       </c>
       <c r="E22">
-        <v>0.1675554347012351</v>
+        <v>0.1167682725366213</v>
       </c>
       <c r="F22">
-        <v>3.524365370009235</v>
+        <v>4.768656626833547</v>
       </c>
       <c r="G22">
-        <v>0.002505116546075089</v>
+        <v>0.0007228773756453959</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2967796970004173</v>
+        <v>0.2694214802962023</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1412659647149219</v>
+        <v>0.06392401616379573</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.21601499353631</v>
+        <v>14.77448040811441</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4217416392033044</v>
+        <v>0.4166311571968606</v>
       </c>
       <c r="D23">
-        <v>0.08387536211031232</v>
+        <v>0.0312586982860168</v>
       </c>
       <c r="E23">
-        <v>0.1672252377328824</v>
+        <v>0.1135088335131513</v>
       </c>
       <c r="F23">
-        <v>3.493764842240381</v>
+        <v>4.589430998683042</v>
       </c>
       <c r="G23">
-        <v>0.002507367663496564</v>
+        <v>0.0007269939190359676</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2955953609485107</v>
+        <v>0.2605494162737045</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1413089149029858</v>
+        <v>0.06285715196113273</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.11739722765606</v>
+        <v>14.20928236945622</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4137670296160252</v>
+        <v>0.3630004209963431</v>
       </c>
       <c r="D24">
-        <v>0.08412516423920025</v>
+        <v>0.03031013601149724</v>
       </c>
       <c r="E24">
-        <v>0.1660962847029985</v>
+        <v>0.1017010894487882</v>
       </c>
       <c r="F24">
-        <v>3.381189124191167</v>
+        <v>3.936019188240863</v>
       </c>
       <c r="G24">
-        <v>0.002516224466666168</v>
+        <v>0.0007426420099661304</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2913572064316128</v>
+        <v>0.2283589257042706</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1415508839013313</v>
+        <v>0.05905202290456657</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.753708705221186</v>
+        <v>12.14841797043454</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4059355002486029</v>
+        <v>0.3088379029640294</v>
       </c>
       <c r="D25">
-        <v>0.08445951084074288</v>
+        <v>0.02942694051111872</v>
       </c>
       <c r="E25">
-        <v>0.1651378580110006</v>
+        <v>0.08990347583534231</v>
       </c>
       <c r="F25">
-        <v>3.266783272650969</v>
+        <v>3.274206653164981</v>
       </c>
       <c r="G25">
-        <v>0.002526491120654018</v>
+        <v>0.0007597884218747452</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2873113850368156</v>
+        <v>0.1960597757006326</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1419815707233525</v>
+        <v>0.05537313328538573</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.382154833515415</v>
+        <v>10.06015153741896</v>
       </c>
     </row>
   </sheetData>
